--- a/spexcel_output.xlsx
+++ b/spexcel_output.xlsx
@@ -538,86 +538,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -628,59 +610,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -691,70 +664,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/spexcel_output.xlsx
+++ b/spexcel_output.xlsx
@@ -10,18 +10,31 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
   <si>
     <t>1st Line.1</t>
   </si>
   <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
     <t>2nd Line.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
   </si>
   <si>
     <t>3rd Line.1</t>
@@ -29,80 +42,80 @@
   <si>
     <t>Lim Li Ping (G10, CT)
 Head (Commercial Malaysia), Commercial Malaysia, Commercial, Strategy &amp; Commercial, PCSB, Upstream Business
-Retire: 03/02/2034,   Age: 45
-PPA: 2, 2, 1, 2, SDP</t>
+Retire: 03/02/2034,   Age: 46
+PPA: 1, 2, 2, 1, 2</t>
   </si>
   <si>
     <t>Izwan bin Ismail (G11, CT)
 Head (Executive Assistant), Executive Assistant, President Special Assistant Unit, PETRONAS 
 Retire: 25/08/2035,   Age: 44
-PPA: 1, 2, 2, 2, 2</t>
+PPA: 1, 1, 2, 2, 2</t>
   </si>
   <si>
     <t>Jazlinawati binti Osman (G11, CT)
 Head (Transformation Office), Transformation Office, President Special Assistant Unit, PETRONAS 
-Retire: 23/02/2034,   Age: 45
-PPA: 1, 2, 2, 2, 3H</t>
-  </si>
-  <si>
-    <t>Abdul Aziz bin Othman (G11, CT)
+Retire: 23/02/2034,   Age: 46
+PPA: 2, 1, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>Abdul Aziz bin Othman (G12, CT)
 VP, Strategy &amp; New Ventures, Strategy &amp; Corporate Development, International Assets, PCSB, Upstream Business
 Retire: 06/08/2020,   Age: 54
-PPA: 2, 1, 2, 1, 2</t>
+PPA: 2, 2, 1, 2, 1</t>
   </si>
   <si>
     <t>Hezlinn Fariss Idris (G11, CT)
 Chief Group Strat. &amp; Transf. Officer, PETRONAS Lubricant International SB, Marketing, Downstream Corporate Office, PETRONAS 
-Retire: 19/02/2033,   Age: 46
-PPA: 2, 2, 1, 3H, 2</t>
+Retire: 19/02/2033,   Age: 47
+PPA: 2, 2, 2, 1, 3H</t>
   </si>
   <si>
     <t>Adiana Mastura binti Mohamed Idris (G09, CT)
 Head (Commercial MPM), Commercial MPM, Commercial, Strategy &amp; Commercial, PETRONAS Upstream
 Retire: 30/08/2036,   Age: 43
-PPA: 2, 3H, 2, 2, 3H</t>
+PPA: 2, 2, 3H, 2, 2</t>
   </si>
   <si>
     <t>Abang Jimmy bin Abang Mordian (G10, CT)
 Head (Leadership &amp; Capability Dev.), Leadership &amp; Capability Development, Human Capital Development, Group Human Resource Management, PETRONAS 
 Retire: 23/05/2036,   Age: 43
-PPA: 2, 3S, 2, SDP, 3H</t>
+PPA: 2, 2, 3S, 2, SDP</t>
   </si>
   <si>
     <t>Abdullah Ayman bin Awaluddin (G08, CT)
 Head (Venture Architect), Venture Architect, Venture Builder, Marketing, PDB, Downstream Business
 Retire: 30/07/2041,   Age: 38
-PPA: 3H, 2, 1, 1, 3H</t>
+PPA: 2, 3H, 2, 1, 1</t>
   </si>
   <si>
     <t>Izmir bin Kamarudin (G09, CT)
 Head (BD - USA), Business Development, Strategy &amp; Commercial, PCSB, Upstream Business
 Retire: 29/10/2029,   Age: 45
-PPA: 3H, 2, 3H, 2, 3L</t>
+PPA: 3H, 3H, 2, 3H, 2</t>
   </si>
   <si>
     <t>Muhammad Huzaini bin Ghazali (G09, CT)
 Director (Strategy &amp; Commercial), Strategy &amp; Corporate Development, International Assets, PCSB, Upstream Business
 Retire: 27/06/2031,   Age: 43
-PPA: 3H, 2, 2, 1, 2</t>
+PPA: 2, 3H, 2, 2, 1</t>
   </si>
   <si>
     <t>Norzaileen binti Shamsul Kamar (G07, CT)
 Manager (LMT Planning &amp; Performance), LMT Planning &amp; Performance, Finance &amp; Risk, LNG Marketing &amp; Trading, PLSB, Gas &amp; New Energy
 Retire: 29/10/2041,   Age: 38
-PPA: 3H, 2, 2, 2, 2</t>
+PPA: 2, 3H, 2, 2, 2</t>
   </si>
   <si>
     <t>Muhammad Farid bin Hussin (G07, CT)
-Manager (Commercial &amp; Pricing), Commercial &amp; Pricing, Energy &amp; Gas Trading, Gas &amp; Power, PEGT, Gas &amp; New Energy
+Head (Commercial Optimization), Commercial Optimization, Gas &amp; Power, PEGT, Gas &amp; New Energy
 Retire: 07/06/2043,   Age: 36
-PPA: 3H, 2, 3S, 3S, 2</t>
+PPA: 2, 3H, 2, 3S, 3S</t>
   </si>
   <si>
     <t>Azrul bin Osman Rani (G12, CT)
 Managing Director/CEO, MD/CEO Office, Marketing, PDB, Downstream Business
 Retire: 13/11/2033,   Age: 46
-PPA: 2, 1, 2, 1, 2</t>
+PPA: 2, 2, 1, 2, 1</t>
   </si>
   <si>
     <t>Sani Zuhairi bin Zainudin (G10, CT)
@@ -114,73 +127,157 @@
     <t>Ezran bin Mahadzir (G11, CT)
 Head (Energy &amp; Gas Trading), Energy &amp; Gas Trading, Gas &amp; Power, PEGT, Gas &amp; New Energy
 Retire: 24/04/2030,   Age: 44
-PPA: 1, 1, 2, 2, 2</t>
+PPA: 2, 1, 1, 2, 2</t>
   </si>
   <si>
     <t>Mazlin Erawati binti Ab Manan (G10, CT)
 Head (CEO Office), RC &amp; Petrochemical, Project, PRPC, Downstream Business
 Retire: 17/01/2040,   Age: 40
-PPA: 2, 2, 2, 2, 1</t>
+PPA: 2, 2, 2, 2, 2</t>
   </si>
   <si>
     <t>Mohd Faizal bin Mohamed Sulaiman (G08, CT)
 Head (Marketing – South East Asia), Marketing - South East Asia, Marketing &amp; Trading, LNG Marketing &amp; Trading, PLL, Gas &amp; New Energy
 Retire: 26/04/2042,   Age: 37
-PPA: 3H, 1, 2, 2, 1</t>
+PPA: SDP, 3H, 1, 2, 2</t>
   </si>
   <si>
     <t>Nazri Idzlan bin Abdul Malek (G08, CT)
 Head, Strategic Planning &amp; Buss Dev, Strategic Planning &amp; Buss Development, Refining &amp; Trading, Downstream Corporate Office, PETRONAS 
 Retire: 21/12/2041,   Age: 38
-PPA: SDP, SDP, 3S, 3H, 2</t>
-  </si>
-  <si>
-    <t>Ruslan Halim bin Islahudin (G10, CT)
-Head (Human Capital Strategy), Human Capital Strategy, Group Human Resource Management, PETRONAS 
-Retire: 24/04/2030,   Age: 44
-PPA: 2, 1, 1, 1, 2</t>
-  </si>
-  <si>
-    <t>Norliana Aida binti Ramli (G09, CT)
-Head (Project Development), Project Development, Strategic Planning &amp; Ventures Department, PCGB, Downstream Business
-Retire: 17/08/2036,   Age: 43
-PPA: 2, 2, 2, 1, 2</t>
-  </si>
-  <si>
-    <t>Wan Sayuti bin Wan Hussin (G09, CT)
-Head (Project), Strategic Research, Corporate Strategy, PETRONAS 
-Retire: 27/09/2039,   Age: 40
-PPA: 1, 2, 3H, UL, 2</t>
-  </si>
-  <si>
-    <t>Yaacob bin Salim (G10, CT)
-Deputy Project Director (Petchem), Deputy Project (Petchem), Petchem, Project, PRPC, Downstream Business
-Retire: 03/02/2027,   Age: 52
+PPA: 3H, SDP, SDP, 3S, 3H</t>
+  </si>
+  <si>
+    <t>Mohd Redhani bin Abdul Rahman (G12, CT)
+Head (Iraq), Iraq, International Assets, PCSB, Upstream Business
+Retire: 07/04/2035,   Age: 44
+PPA: 2, 1, 1, 2, 2</t>
+  </si>
+  <si>
+    <t>Azli bin Abu Bakar (G09, CT)
+Head (Asia Pacific Basin), Asia Pacific Basin, Basin &amp; Petroleum System, Exploration, PCSB, Upstream Business
+Retire: 16/11/2031,   Age: 43
+PPA: 3H, 3H, 2, 2, SDP</t>
+  </si>
+  <si>
+    <t>Liau Min Hoe (G10, CT)
+Head (Myanmar), Myanmar, International Assets, PCSB, Upstream Business
+Retire: 04/03/2036,   Age: 43
+PPA: 3H, 3H, 2, 3H, 1</t>
+  </si>
+  <si>
+    <t>Christian Brinzer (G08, OT)
+Head (Exploration), Mexico Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 29/03/2033,   Age: 46
+PPA: 2, 3H, 2, 3H, -</t>
+  </si>
+  <si>
+    <t>Ahmad Faisal bin Bakar (G07, CT)
+Head (Central Luconia), Central Luconia, Borneo Shallow Water &amp; Onshore, Malaysia Ventures, Exploration, PCSB, Upstream Business
+Retire: 17/07/2038,   Age: 41
+PPA: 1, 2, 2, 3H, 1</t>
+  </si>
+  <si>
+    <t>Ahmad Shamsul Kamal bin Zakaria (G07, CT)
+Head (Suriname Ventures), Suriname Ventures, MECA &amp; Americas Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 02/01/2035,   Age: 45
+PPA: 3H, 2, 2, 2, 3H</t>
+  </si>
+  <si>
+    <t>Muhamad Amar bin Amir (G05, OT)
+Manager (Geoscience), Myanmar Ventures, Asia Pacific Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 17/07/2047,   Age: 32
+PPA: 2, 2, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>Eadie Noor Fadzly bin Mohd Saleh (G07, CT)
+Head (Exploration), US Ventures, MECA &amp; Americas Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 22/09/2042,   Age: 37
 PPA: 1, 2, 2, 2, 2</t>
   </si>
   <si>
-    <t>Muhammad Fahmi bin Ismail (G08, CT)
-Head (Project Development &amp; Formation), Project Development, Strategic Planning &amp; Ventures Department, PCGB, Downstream Business
-Retire: 27/12/2031,   Age: 43
-PPA: 2, 2, 2, 3H, 3S</t>
-  </si>
-  <si>
-    <t>Shahrom Muhammad bin Yusuf (G09, CT)
-Head(Mktg &amp; Sls Methanol, Aro &amp; MTBE), Mktg &amp; Sls(Methanol,Aromatics &amp; MTBE), PCML, Downstream Business
-Retire: 02/08/2035,   Age: 44
-PPA: 2, 1, 2, 2, 2</t>
-  </si>
-  <si>
-    <t>Bahrin bin Asmawi (G09, CT)
-Head (EVP &amp; CEO Downstream Office), EVP &amp; CEO Downstream Office, Downstream Corporate Office, PETRONAS 
-Retire: 14/10/2028,   Age: 46
+    <t>Muhamad Danni Mulya bin Ramlan (G05, CT)
+Staff (Petroleum Geosciences), Americas Basin, Basin &amp; Petroleum System, Exploration, PCSB, Upstream Business
+Retire: 03/09/2048,   Age: 31
 PPA: 2, 2, 2, 2, 2</t>
   </si>
   <si>
-    <t>Vimal Rao A/L Veerasamy (G05, )
-Head (Communications International), Communications Planning, Communications Management, Group Strategic Communications, PETRONAS 
-Retire: 15/05/2041,   Age: 38
-PPA: 3H, 3H, 2, 1, 3H</t>
+    <t>Ramlee bin Abdul Rahman (G10, OT)
+Head (Asia Pacific Ventures), Asia Pacific Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 01/10/2021,   Age: 53
+PPA: 3H, 3S, 3H, 2, 3H</t>
+  </si>
+  <si>
+    <t>Meor Shahrin bin Mahmood (G09, CT)
+Manager (Gabon Ventures), Gabon Ventures, Africa Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 19/07/2026,   Age: 48
+PPA: 3H, 3H, 3H, 3H, 3H</t>
+  </si>
+  <si>
+    <t>Harris Saifi bin Hakimi (G07, CT)
+Head (Internal Audit-Downstream), Internal Audit - Downstream, Group Internal Audit, PETRONAS 
+Retire: 22/08/2039,   Age: 40
+PPA: 3H, 3H, 3H, 3H, 2</t>
+  </si>
+  <si>
+    <t>Puteri Nurlina binti Mokhtar (G06, BT)
+Staff (Petroleum Geosciences), Operations, Mexico Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 25/02/2040,   Age: 40
+PPA: 3H, 3H, 3H, 3H, 3H</t>
+  </si>
+  <si>
+    <t>Yusma Bazleigh bin Mohd Yusoff (G06, BT)
+Staff (Petroleum Geociences), Operations, Mexico Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 29/09/2044,   Age: 35
+PPA: 2, 3H, 3H, 2, 3H</t>
+  </si>
+  <si>
+    <t>Ali Andrea bin Hashim (G06, OT)
+Head (Exploration), Brazil Ventures, MECA &amp; Americas Ventures, International Ventures, Exploration, PCSB, Upstream Business
+Retire: 30/11/2042,   Age: 37
+PPA: 2, 2, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>Mohamad Faiz bin Rasli (G05, OT)
+Manager (Business Analysis), Business Development, Strategy &amp; Commercial, PCSB, Upstream Business
+Retire: 22/05/2047,   Age: 32
+PPA: 2, 2, 3H, 2, 2</t>
+  </si>
+  <si>
+    <t>Mohd Hafizan bin Abdul Wahab (G06, OT)
+Staff (Petroleum Geosciences), Technical Assurance &amp; Capability, Exploration, PCSB, Upstream Business
+Retire: 15/06/2046,   Age: 33
+PPA: 1, 2, 2, 2, 3H</t>
+  </si>
+  <si>
+    <t>Suhaileen binti Shahar (G10, BT)
+Head (Basin &amp; Petroleum System), Basin &amp; Petroleum System, Exploration, PCSB, Upstream Business
+Retire: 13/05/2034,   Age: 45
+PPA: 3H, 1, 3H, 2, 2</t>
+  </si>
+  <si>
+    <t>Sandeep Kumar Chandola (G10, OT)
+Custodian (Acquisition), Technical Assurance &amp; Capability, Exploration, PCSB, Upstream Business
+Retire: 16/08/2025,   Age: 54
+PPA: 2, 2, 2, 2, 2</t>
+  </si>
+  <si>
+    <t>Marc De Urreiztieta (G08, OT)
+Principal (Petroleum Geosciences), Technical Assurance, Technical Assurance &amp; Capability, Exploration, PCSB, Upstream Business
+Retire: 06/08/2026,   Age: 53
+PPA: 3S, 3H, 2, 2, 3H</t>
+  </si>
+  <si>
+    <t>Brianne Gillian Tracey Alleyne (EXPAT, OT)
+Staff (Petroleum Geosciences), Asia Pacific Basin, Basin &amp; Petroleum System, Exploration, PCSB, Upstream Business
+Retire: 15/08/2020,   Age: 39
+PPA: 3H, 2, 2, 3H, 3S</t>
+  </si>
+  <si>
+    <t>Ong Swee Keong (G07, BT)
+Principal (Petroleum Geosciences), Technical Assurance, Technical Assurance &amp; Capability, Exploration, PCSB, Upstream Business
+Retire: 20/04/2041,   Age: 38
+PPA: 2, 3H, 2, 2, 2</t>
   </si>
 </sst>
 </file>
@@ -538,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,53 +651,62 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
+      <c r="F4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -610,13 +716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,35 +732,44 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D3" t="s">
         <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -664,13 +779,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,43 +807,262 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="F5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
